--- a/ResultadoEleicoesDistritos/BRAGA_CELORICO DE BASTO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGA_CELORICO DE BASTO.xlsx
@@ -597,64 +597,64 @@
         <v>5193</v>
       </c>
       <c r="H2" t="n">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I2" t="n">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="J2" t="n">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N2" t="n">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="n">
         <v>5</v>
       </c>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
       <c r="R2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="S2" t="n">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="T2" t="n">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="U2" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="V2" t="n">
-        <v>3340</v>
+        <v>3354</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>3317</v>
+        <v>3239</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
